--- a/target/smartpls_40.xlsx
+++ b/target/smartpls_40.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BAE9F8-B5E8-40CA-BD99-866F98D3F96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD5D798-2D7E-4B9B-97F9-45D4A52517B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{A045F930-4DC8-43A3-823B-36ED7A8AB670}"/>
   </bookViews>
   <sheets>
     <sheet name="flc" sheetId="1" r:id="rId1"/>
@@ -483,24 +483,6 @@
     <t>Spesialis ICT, Teknologi digital, Produktivitas, Total faktor produktivitas, (Labor share) Kompensasi</t>
   </si>
   <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>WB</t>
-  </si>
-  <si>
-    <t>BK * D</t>
-  </si>
-  <si>
     <t>D10</t>
   </si>
   <si>
@@ -510,19 +492,37 @@
     <t>D9</t>
   </si>
   <si>
-    <t>P * D</t>
-  </si>
-  <si>
     <t>P10</t>
   </si>
   <si>
-    <t>WB * D</t>
-  </si>
-  <si>
     <t>WB5</t>
   </si>
   <si>
     <t>WB6</t>
+  </si>
+  <si>
+    <t>BK (X3)</t>
+  </si>
+  <si>
+    <t>D (Z)</t>
+  </si>
+  <si>
+    <t>P (X1)</t>
+  </si>
+  <si>
+    <t>PK (Y)</t>
+  </si>
+  <si>
+    <t>WB (X2)</t>
+  </si>
+  <si>
+    <t>BK (X3) * D (Z)</t>
+  </si>
+  <si>
+    <t>P (X1) * D (Z)</t>
+  </si>
+  <si>
+    <t>WB (X2) * D (Z)</t>
   </si>
   <si>
     <t>BK -&gt; PK</t>
@@ -909,7 +909,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:I9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,25 +919,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B2">
         <v>0.82199999999999995</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B4">
         <v>-6.8000000000000005E-2</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B5">
         <v>8.5999999999999993E-2</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B7">
         <v>0.57799999999999996</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>5.3999999999999999E-2</v>
@@ -1563,32 +1563,32 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:I9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B4">
         <v>9.4E-2</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B5">
         <v>9.7000000000000003E-2</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B7">
         <v>0.63100000000000001</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>8.4000000000000005E-2</v>
@@ -1728,7 +1728,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B2">
         <v>0.90400000000000003</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B4">
         <v>0.92800000000000005</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B5">
         <v>0.92900000000000005</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B7">
         <v>0.91400000000000003</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>0.89</v>
@@ -1899,33 +1899,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CF344E-BB11-4CB3-9A36-5269510EDA15}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4">
         <v>0.93700000000000006</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D10">
         <v>0.82499999999999996</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D17">
         <v>0.77400000000000002</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D18">
         <v>0.76500000000000001</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F19">
         <v>0.85099999999999998</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E21">
         <v>0.81899999999999995</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I38">
         <v>0.97499999999999998</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H43">
         <v>0.79700000000000004</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H44">
         <v>0.89100000000000001</v>
@@ -2286,7 +2286,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:F8"/>
+      <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,13 +2322,13 @@
         <v>0.57399999999999995</v>
       </c>
       <c r="C2">
-        <v>0.57599999999999996</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D2">
-        <v>3.9E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>14.872999999999999</v>
+        <v>15.423</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2342,16 +2342,16 @@
         <v>-6.3E-2</v>
       </c>
       <c r="C3">
-        <v>-6.2E-2</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="D3">
         <v>4.7E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>1.327</v>
+        <v>1.33</v>
       </c>
       <c r="F3">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2362,13 +2362,13 @@
         <v>0.23699999999999999</v>
       </c>
       <c r="C4">
-        <v>0.24299999999999999</v>
+        <v>0.247</v>
       </c>
       <c r="D4">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>5.6210000000000004</v>
+        <v>5.6870000000000003</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2385,13 +2385,13 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="D5">
-        <v>4.2999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>1.927</v>
+        <v>1.98</v>
       </c>
       <c r="F5">
-        <v>2.7E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2402,16 +2402,16 @@
         <v>-1.6E-2</v>
       </c>
       <c r="C6">
-        <v>-5.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="D6">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.26900000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="F6">
-        <v>0.39400000000000002</v>
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2422,16 +2422,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C7">
-        <v>8.6999999999999994E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D7">
-        <v>8.5000000000000006E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>1.006</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="F7">
-        <v>0.158</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2442,16 +2442,16 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="C8">
-        <v>7.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D8">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E8">
-        <v>0.22700000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="F8">
-        <v>0.41</v>
+        <v>0.40699999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2464,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B2">
         <v>0.41</v>
@@ -2502,7 +2502,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1">
         <v>1740</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1">
         <v>2900</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1">
         <v>2900</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1">
         <v>2320</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B8" s="1">
         <v>1740</v>
@@ -2700,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D852D1-3B6B-4BB9-864E-C3E094800358}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C45"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B10" s="3">
         <v>2.5219999999999998</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B17" s="3">
         <v>2.2400000000000002</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B18" s="3">
         <v>2.2919999999999998</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B21" s="3">
         <v>2.6070000000000002</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B43" s="1">
         <v>2.1339999999999999</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B44" s="1">
         <v>2.0369999999999999</v>
